--- a/Fragenmuster.xlsx
+++ b/Fragenmuster.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Kategorie</t>
   </si>
@@ -208,6 +208,69 @@
   </si>
   <si>
     <t>Wann ist das Buch XXXXX erschienen?</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%0A%23Liga%0ASELECT%20distinct%20%3Ffootballleague%20%3FfootballleagueLabel%20%3Fcountry%20%3FcountryLabel%20%3FleaguelevelbelowLabel%20%3FnumberofparticipantsLabel%20%3FseasonstartLabel%20where%20%7B%0A%20%20%3Ffootballleague%20wdt%3AP31%20wd%3AQ15991303%20.%0A%20%20%20%0A%20%20%20%3Ffootballleague%20wdt%3AP17%20%3Fcountry%3B%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP2500%20%3Fleaguelevelbelow%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP1132%20%3Fnumberofparticipants%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP4794%20%3Fseasonstart.%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%3Ffootballleague%20rdfs%3Alabel%20%3FfootballleagueLabel%20.%0A%20%20%20%20FILTER%20((CONTAINS(%3FfootballleagueLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FfootballleagueLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FfootballleagueLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FfootballleagueLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FfootballleagueLabel%2C%20%22o%22%20)))%0A%20%20%20%20%20%20%20%20%20%20%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20.%0A%0A%20%20%7D%0A%7D%20ORDER%20BY%20%3Ffootballleague%0A%0ALimit%20100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%0A%23Sportsteam%0ASELECT%20distinct%20%3Fsportsteam%20%3FsportsteamLabel%20%3FcountryLabel%20%3FhomevenueLabel%20%3FleagueLabel%20%3FheadcoachLabel%20%3FcaptainLabel%20where%20%7B%0A%20%20%3Fsportsteam%20wdt%3AP31%20wd%3AQ15944511.%0A%20%20%0A%20%20%3Fsportsteam%20wdt%3AP17%20%3Fcountry%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP115%20%3Fhomevenue%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP118%20%3Fleague%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP286%20%3Fheadcoach.%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%3Fsportsteam%20rdfs%3Alabel%20%3FsportsteamLabel%20.%0A%09%20%20%20%20FILTER%20((CONTAINS(%3FsportsteamLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FsportsteamLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FsportsteamLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FsportsteamLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FsportsteamLabel%2C%20%22o%22%20)))%0A%0A%20%20%20%20%20%20%20%20%20%20%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20.%0A%0A%20%20%7D%0A%7D%20ORDER%20BY%20%3FsportsteamLabel%0A%0ALimit%20100</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23L%C3%A4ngste%20Fl%C3%BCsse%20jedes%20Kontinents%0A%23added%20before%202016-10%0A%0ASELECT%20%3Friver%20%3FriverLabel%20%3Fcontinent%20%3FcontinentLabel%20%3Flength%0AWHERE%0A%7B%0A%20%20%7B%0A%20%20%20%20SELECT%20%3Fcontinent%20(MAX(%3Flength)%20AS%20%3Flength)%0A%20%20%20%20WHERE%0A%20%20%20%20%7B%0A%20%20%20%20%20%20%3Friver%20wdt%3AP31%2Fwdt%3AP279*%20wd%3AQ355304%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP2043%20%3Flength%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP30%20%3Fcontinent.%0A%20%20%20%20%7D%0A%20%20%20%20GROUP%20BY%20%3Fcontinent%0A%20%20%7D%0A%20%20%3Friver%20wdt%3AP31%2Fwdt%3AP279*%20wd%3AQ355304%3B%0A%20%20%20%20%20%20%20%20%20wdt%3AP2043%20%3Flength%3B%0A%20%20%20%20%20%20%20%20%20wdt%3AP30%20%3Fcontinent.%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22.%20%7D%0A%7D%0AORDER%20BY%20%3FcontinentLabel</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=SELECT%20DISTINCT%20%3Fcountry%20%3FcountryLabel%20%3Fcapital%20%3FcapitalLabel%20%3Fcountrypopulation%20%3Flanguage%20%3FlanguageLabel%20%3Fcurrency%20%24currencyLabel%20%3Fhighestpoint%20%3FhighestpointLabel%20%3Flowestpoint%20%3FlowestpointLabel%20%3Fheadofgoverment%20%3FheadofgovermentLabel%20%3Fformofgoverment%20%3FformofgovermentLabel%20%3FHDI%20%3Fscoollesschild%20%3Funemployment%0AWHERE%0A%7B%0A%20%20%3Fcountry%20wdt%3AP31%20wd%3AQ3624078%20.%0A%20%20%23not%20a%20former%20country%0A%20%20FILTER%20NOT%20EXISTS%20%7B%3Fcountry%20wdt%3AP31%20wd%3AQ3024240%7D%0A%20%20%23and%20no%20an%20ancient%20civilisation%20(needed%20to%20exclude%20ancient%20Egypt)%0A%20%20FILTER%20NOT%20EXISTS%20%7B%3Fcountry%20wdt%3AP31%20wd%3AQ28171280%7D%0A%3Fcountry%20wdt%3AP36%20%3Fcapital%3B%0Awdt%3AP1082%20%3Fcountrypopulation%20%3B%0Awdt%3AP37%20%3Flanguage%20%3B%0Awdt%3AP38%20%3Fcurrency%3B%0Awdt%3AP610%20%3Fhighestpoint%3B%0Awdt%3AP1589%20%3Flowestpoint%3B%0Awdt%3AP6%20%3Fheadofgoverment%3B%0Awdt%3AP122%20%3Fformofgoverment%3B%0A%23wdt%3AP1081%20%3FHDI%3B%0Awdt%3AP2573%20%3Fscoollesschild%3B%20%20%20%20%20%20%20%20%20%0Awdt%3AP1198%20%3Funemployment.%0A%20%20%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%7D%0A%7D%0A%20%0AORDER%20BY%20%3FcountryLabel%0ALIMIT%20500000</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23Musician%0A%0Aselect%20distinct%20%3Fname%20%3FnameLabel%20%3FnameDescription%20%3FStadt%20%3FStadtLabel%20%3Fbirth(YEAR(%3Fbirth)%20as%20%3Fdate)%20where%20%7B%0A%20%20%20%20%3Fname%20wdt%3AP106%2Fwdt%3AP279*%20wd%3AQ639669%20%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP19%20%3FStadt%20%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP569%20%3Fbirth%20.%0A%20%20%20%20SERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%2Cde%22%20%7D%0A%7D%0ALimit%2050</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=SELECT%20%3Fhuman%20%3FhumanLabel%20%3Fbirthdate%20%3FbirthdateLabel%20(YEAR(%3Fbirthdate)%20as%20%3Fdate)%20%3Fgender%20%3FgenderLabel%20%3Ffilmography%20%3FfilmographyLabel%20%3Fcountryship%20%3FcountryshipLabel%20%3Fbirthplace%20%3FbirthplaceLabel%0AWHERE%20%7B%0A%0A%20%20%0A%20%20%3Fhuman%20wdt%3AP31%20wd%3AQ5%20%3B%20%0A%20%20%20%20%20%20%20%20%20wdt%3AP106%20wd%3AQ33999.%0A%0A%20%20%0A%3Fhuman%20wdt%3AP1283%20%3Ffilmography%20%3B%20%0Awdt%3AP21%20%3Fgender%20%3B%0Awdt%3AP27%20%3Fcountryship%20%3B%0Awdt%3AP19%20%3Fbirthplace%20%3B%0Awdt%3AP569%20%3Fbirthdate%20.%0A%20%20%0AFILTER((%3Fbirthdate%20%3E%3D%20%221950-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20%26%26%20(%3Fbirthdate%20%3C%3D%20%222018-12-31T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime))%0A%20%20%20%20%20%20%20%0A%0A%0ASERVICE%20wikibase%3Alabel%20%7B%0A%09%09bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20%7D%0A%20%20%7D%0A%20%20%0AORDER%20BY%20%3Fhuman%0ALIMIT%201000</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=SELECT%20distinct%20%3Ffood%20%3FfoodLabel%20%3Forigin%20%3ForiginLabel%0Awhere%7B%0A%0A%0A%20%20%3Ffood%20wdt%3AP31%20wd%3AQ746549%20.%0A%20%20%0A%0A%20%20%3Ffood%20wdt%3AP495%20%3Forigin.%0A%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%3Ffood%20rdfs%3Alabel%20%3FfoodLabel%20.%0A%20%20%20%20FILTER%20((CONTAINS(%3FfoodLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22b%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22c%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22d%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22f%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22g%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22h%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22j%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22k%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22l%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22m%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22n%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22o%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22p%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22s%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22t%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22v%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22w%22%20))%7C%7C(CONTAINS(%3FfoodLabel%2C%20%22z%22%20))%20)%20%20%20%20%20%20%20%20%20%0A%0ASERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%2Cen%22%20%7D%0A%20%20%7D%0A%20%20%0AORDER%20BY%20%3FfoodLabel%0ALIMIT%20500</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=SELECT%20DISTINCT%20%3Fpainting%20%3FpaintingLabel%20%3FpaintingDescription%20%3Fcreator%20%3FcreatorLabel%20%3Fcollection%20%3FcollectionLabel%20%3Forigin%20%3ForiginLabel%20%3Fheigth%20%3Fweight%20WHERE%20%7B%0A%20%20%20%20%3Fpainting%20wdt%3AP31%20wd%3AQ3305213%20.%0A%20%20%0A%20%20%20%20%20%20%20%20%3Fpainting%20%20wdt%3AP170%20%3Fcreator%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP135%20%3Fgenre%20%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP495%20%3Forigin%3B%20%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP2048%20%3Fheigth%20%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP2049%20%3Fweight%20%3B%20%20%20%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP195%20%3Fcollection%20.%0A%20%20%20%20%20%20%20%3Fcreator%20rdfs%3Alabel%20%3FcreatorLabel%20.%0A%20%20%20%20FILTER%20((CONTAINS(%3FcreatorLabel%2C%20%22della%22))%20%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22Dal%22%20))%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22Monet%22%20))%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22Cassat%22%20))%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22Gogh%22%20))%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22recht%22%20))%7C%7C%20(CONTAINS(%3FcreatorLabel%2C%22da%22%20)))%20%20%20%20%20%20%20%20%20%20%0A%0A%20%20%20%20SERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20%7D%0A%7D%0ALimit%20100</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23tower%0ASELECT%20distinct%20%3Ftower%20%3FtowerLabel%20%3FheightLabel%20%3FcountryLabel%20%0AWHERE%20%7B%0A%0A%20%20%7B%0A%09%09SELECT%20%3Fcountry%20(MAX(%3Fheight)%20AS%20%3Fheight)%20%20WHERE%20%7B%0A%09%09%09%20%20%3Ftower%20wdt%3AP31%20wd%3AQ12518%20.%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%3Ftower%20wdt%3AP2048%20%3Fheight%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP17%20%3Fcountry%3B%0A%09%09%7D%0A%09%09GROUP%20BY%20%3Fcountry%0A%09%09ORDER%20BY%20DESC(%3Fheight)%7D%0A%0A%20%20%3Ftower%20wdt%3AP31%20wd%3AQ12518.%0A%20%20%3Ftower%20wdt%3AP2048%20%3Fheight%3B%0A%20%20%20%20%20%20%20%20%20%20wdt%3AP17%20%3Fcountry.%0A%0A%20%20%20%20%20%20%20%3Ftower%20rdfs%3Alabel%20%3FtowerLabel%20.%0A%20%20%20%20FILTER%20((CONTAINS(%3FtowerLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FtowerLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FtowerLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FtowerLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FtowerLabel%2C%20%22o%22%20)))%0A%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%0A%0A%20%20%7D%0A%7D%20ORDER%20BY%20%3Ftower%20%0ALimit%20100</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=SELECT%20distinct%20%3Ftouristattraction%20%3FtouristattractionLabel%20%3Fcountry%20%3FcountryLabel%20%3FnamedafterLabel%20%3FarchitectLabel%20%3FarchitectureLabel%20where%7B%0A%20%20%3Ftouristattraction%20wdt%3AP31%20wd%3AQ570116.%0A%20%20%20%20%20%20%20%0A%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%3Ftouristattraction%20wdt%3AP17%20%3Fcountry%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP138%20%3Fnamedafter%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP84%20%3Farchitect%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP149%20%3Farchitecture.%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%3Ftouristattraction%20rdfs%3Alabel%20%3FtouristattractionLabel%20.%0A%20%20%20%20FILTER%20((CONTAINS(%3FtouristattractionLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22b%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22c%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22d%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22f%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22g%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22h%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22j%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22k%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22l%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22m%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22n%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22o%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22p%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22s%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22t%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22v%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22w%22%20))%7C%7C(CONTAINS(%3FtouristattractionLabel%2C%20%22z%22%20))%20)%20%20%20%20%20%20%20%20%20%0A%20%20%0A%20%20%20%20%20%20%20%20%20%20%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20.%0A%0A%20%20%7D%0A%7D%20ORDER%20BY%20%3Ftouristattraction%0ALimit%20100</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%0A%23Literaturnobelpreis%0A%0ASELECT%20DISTINCT%20%3Fitem%20%3FitemLabel%20%3Fwhen%20(YEAR(%3Fwhen)%20as%20%3Fdate)%20%3Fstadt%20%3FstadtLabel%20%3Fbirth%20(YEAR(%3Fbirth)%20as%20%3Fbirthdate)%0AWHERE%20%7B%0A%20%20%0A%20%20%3Fitem%20p%3AP166%20%3FawardStat%20.%20%23%20%E2%80%A6%20with%20an%20awarded(P166)%20statement%0A%20%20%3FawardStat%20ps%3AP166%20wd%3AQ37922%20.%20%23%20%E2%80%A6%20that%20has%20the%20value%20Nobel%20Prize%20in%20iterature%20(Q37922)%0A%20%20%3FawardStat%20pq%3AP585%20%3Fwhen%20%3B%20%23%20when%20did%20he%20receive%20the%20Nobel%20prize%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP19%20%3Fstadt%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP569%20%3Fbirth%20.%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0AFILTER%20(%3Fwhen%20%3E%3D%20%221980-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20.%0A%0A%0A%0A%20%20%0ASERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%20%7D%0A%0A%7D%0A%0AORDER%20by%20%3Fwhen</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%0A%23Nobelpreis%20in%20Chemie%0A%0ASELECT%20DISTINCT%20%3Fitem%20%3FitemLabel%20%3Fwhen%20(YEAR(%3Fwhen)%20as%20%3Fdate)%20%3Fstadt%20%3FstadtLabel%20%3Fbirth%20(YEAR(%3Fbirth)%20as%20%3Fbirthdate)%0AWHERE%20%7B%0A%20%20%0A%20%20%3Fitem%20p%3AP166%20%3FawardStat%20.%20%23%20%E2%80%A6%20with%20an%20awarded(P166)%20statement%0A%20%20%3FawardStat%20ps%3AP166%20wd%3AQ44585%20.%20%23%20%E2%80%A6%20that%20has%20the%20value%20Nobel%20Prize%20in%20Chemistry%20(Q44585)%0A%20%20%3FawardStat%20pq%3AP585%20%3Fwhen%20%3B%20%23%20when%20did%20he%20receive%20the%20Nobel%20prize%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP19%20%3Fstadt%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP569%20%3Fbirth%20.%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0AFILTER%20(%3Fwhen%20%3E%3D%20%221980-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20.%0A%0A%0A%20%20%0ASERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%20%7D%0A%0A%7D%0A%0AORDER%20by%20%3Fwhen</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23Nobelpreis%20in%20Physik%0A%0ASELECT%20DISTINCT%20%3Fitem%20%3FitemLabel%20%3Fwhen%20(YEAR(%3Fwhen)%20as%20%3Fdate)%20%3Fstadt%20%3FstadtLabel%20%3Fbirth%20(YEAR(%3Fbirth)%20as%20%3Fbirthdate)%0AWHERE%20%7B%0A%20%20%0A%20%20%3Fitem%20p%3AP166%20%3FawardStat%20.%20%23%20%E2%80%A6%20with%20an%20awarded(P166)%20statement%0A%20%20%3FawardStat%20ps%3AP166%20wd%3AQ38104%20.%20%23%20%E2%80%A6%20that%20has%20the%20value%20Nobel%20Prize%20in%20Physics%20(Q38104)%0A%20%20%3FawardStat%20pq%3AP585%20%3Fwhen%20%3B%20%23%20when%20did%20he%20receive%20the%20Nobel%20prize%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP19%20%3Fstadt%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP569%20%3Fbirth%20.%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0AFILTER%20(%3Fwhen%20%3E%3D%20%221980-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20.%0A%0A%0A%20%20%0ASERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%20%7D%0A%0A%7D%0A%0AORDER%20by%20%3Fwhen</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23Nobelpreis%20in%20Physiologie%20oder%20Medizin%20%0A%0ASELECT%20DISTINCT%20%3Fitem%20%3FitemLabel%20%3Fwhen%20(YEAR(%3Fwhen)%20as%20%3Fdate)%20%3Fstadt%20%3FstadtLabel%20%3Fbirth%20(YEAR(%3Fbirth)%20as%20%3Fbirthdate)%0AWHERE%20%7B%0A%20%20%0A%20%20%3Fitem%20p%3AP166%20%3FawardStat%20.%20%23%20%E2%80%A6%20with%20an%20awarded(P166)%20statement%0A%20%20%3FawardStat%20ps%3AP166%20wd%3AQ80061%20.%20%23%20%E2%80%A6%20that%20has%20the%20value%20Nobel%20Prize%20in%20Physiologie%20or%20Medicine%20(Q80061)%0A%20%20%3FawardStat%20pq%3AP585%20%3Fwhen%20%3B%20%23%20when%20did%20he%20receive%20the%20Nobel%20prize%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP19%20%3Fstadt%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP569%20%3Fbirth%20.%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0AFILTER%20(%3Fwhen%20%3E%3D%20%221980-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20.%0A%0A%0A%20%20%0ASERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%20%7D%0A%0A%7D%0A%0AORDER%20by%20%3Fwhen</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%0A%23Friedensnobelpreis%0A%0ASELECT%20DISTINCT%20%3Fitem%20%3FitemLabel%20%3Fwhen%20(YEAR(%3Fwhen)%20as%20%3Fdate)%20%3Fstadt%20%3FstadtLabel%20%3Fbirth%20(YEAR(%3Fbirth)%20as%20%3Fbirthdate)%0AWHERE%20%7B%0A%20%20%0A%20%20%3Fitem%20p%3AP166%20%3FawardStat%20.%20%23%20%25E2%2580%25A6%20with%20an%20awarded(P166)%20statement%0A%20%20%3FawardStat%20ps%3AP166%20wd%3AQ35637%20.%20%23%20%25E2%2580%25A6%20that%20has%20the%20value%20Nobel%20Peace%20Prize%20(Q35637)%0A%20%20%3FawardStat%20pq%3AP585%20%3Fwhen%20%3B%20%23%20when%20did%20he%20receive%20the%20Nobel%20prize%0A%20%20%0A%20%20OPTIONAL%7B%20%3Fitem%20wdt%3AP19%20%3Fstadt%20%3B%20%0A%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%0A%20%3Fitem%20wdt%3AP569%20%3Fbirth%20.%20%0A%20%20%20%20%20%20%20%20%20%20%0A%20%20FILTER%20(%3Fwhen%20%3E%3D%20%221980-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)%20.%0A%20%20%0A%20%20%0A%20%20%0ASERVICE%20wikibase%3Alabel%20%7B%20bd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%20%7D%0A%0A%7D%0A%0AORDER%20by%20%3Fwhen</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23Partei%0ASELECT%20distinct%20%3Fpolitical_party%20%3Fpolitical_partyLabel%20%3FcountryLabel%20%3Fheadquarters_locationLabel%20%3Fmember_countLabel%20%3FchairpersonLabel%20where%20%7B%0A%20%20%3Fpolitical_party%20wdt%3AP31%20wd%3AQ7278%20.%0A%20%20%20%0A%20%20%20%20%3Fpolitical_party%20wdt%3AP17%20%3Fcountry%20%3B%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP159%20%3Fheadquarters_location%3B%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20wdt%3AP2124%20%3Fmember_count%20.%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20OPTIONAL%20%7B%20%3Fpolitical_party%20wdt%3AP488%20%3Fchairperson%20.%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%3Fchairperson%20rdfs%3Alabel%20%3FchairpersonLabel%20filter%20(lang(%3FchairpersonLabel)%20%3D%20%22en%22).%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%7D%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%3Fpolitical_party%20rdfs%3Alabel%20%3Fpolitical_partyLabel%20.%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20FILTER%20((CONTAINS(%3Fpolitical_partyLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3Fpolitical_partyLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3Fpolitical_partyLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3Fpolitical_partyLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3Fpolitical_partyLabel%2C%20%22o%22%20)))%0A%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%20%0A%20%0A%20%20%0A%20%20SERVICE%20wikibase%3Alabel%20%7B%0A%20%20%20%20bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20.%0A%0A%20%20%7D%0A%7D%20ORDER%20BY%20%3Fpolitical_party%0A%0ALimit%20100</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23%20Planeten%0A%0A%23%20distance%20%3D%20Entfernung%20zu%20Erde%0A%0A%23%20period%20%3D%20siderische%20Periode%20(ZEit%20f%C3%BCr%201%20Umlauf%20auf%20Bahn%0A%0ASELECT%20%3Fplanet%20%3FplanetLabel%20%3Fmass%20%3Fdistance%20%3Fperiod%20%20%7B%0A%0A%3Fobjekt%20wdt%3AP31%20wd%3AQ17444909%20%3B%0A%0A%20%20%20%20%20%20%20%20wdt%3AP5869%20%3Fplanet%20.%0A%0A%20%20%3Fplanet%20wdt%3AP2067%20%3Fmass%20%3B%0A%0A%20%20%20%20%20%20%20%20wdt%3AP2583%20%3Fdistance%20%3B%0A%0A%20%20%20%20%20%20%20%20wdt%3AP2146%20%3Fperiod%20.%0A%09%0A%0A%0ASERVICE%20wikibase%3Alabel%20%7B%0A%0Abd%3AserviceParam%20wikibase%3Alanguage%20%22en%22%20.%0A%0A%7D%0A%0A%7D%0A%0AOrder%20BY%20%3Fobjekt%0A%0ALimit%2050%0A</t>
+  </si>
+  <si>
+    <t>https://query.wikidata.org/sparql?format=json&amp;query=%23%20B%C3%BCcher%0A%0ASELECT%20%3Fbook%20%3FbookLabel%20%3FauthorLabel%20%20%20(YEAR(%3FpublicationDate)%20as%20%3Fdate)%20%23%3Fgenre_label%20%3Fseries_label%0AWHERE%0A%7B%0A%09%3Fbook%20wdt%3AP31%20wd%3AQ571%20.%0A%09%3Fbook%20wdt%3AP50%20%3Fauthor%20%3B%0A%09%0A%09OPTIONAL%20%7B%0A%09%09%3Fbook%20wdt%3AP577%20%3FpublicationDate%20.%0A%09%7D%0A%20%20%3Fbook%20rdfs%3Alabel%20%3FbookLabel%20.%0AFILTER((CONTAINS(%3FbookLabel%2C%20%22a%22%20))%7C%7C(CONTAINS(%3FbookLabel%2C%20%22e%22%20))%7C%7C(CONTAINS(%3FbookLabel%2C%20%22i%22%20))%7C%7C(CONTAINS(%3FbookLabel%2C%20%22u%22%20))%7C%7C(CONTAINS(%3FbookLabel%2C%20%22o%22%20)))%09%0AFILTER(((%3FpublicationDate%20%3E%3D%20%222000-01-01T00%3A00%3A00Z%22%5E%5Exsd%3AdateTime)))%09%0A%09SERVICE%20wikibase%3Alabel%20%7B%0A%09%09bd%3AserviceParam%20wikibase%3Alanguage%20%22de%22%20.%0A%09%7D%0A%7D%0A%23GROUP%20BY%20%3FbookLabel%0ALimit%201000</t>
   </si>
 </sst>
 </file>
@@ -239,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -308,13 +371,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -332,7 +395,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -341,13 +404,52 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -356,10 +458,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -368,40 +468,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -410,21 +500,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -694,9 +787,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-CC3E-4080-A465-B75825CF1A00}"/>
                 </c:ext>
@@ -718,9 +809,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-CC3E-4080-A465-B75825CF1A00}"/>
                 </c:ext>
@@ -778,9 +867,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -929,7 +1016,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1030,7 +1116,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2856,11 +2941,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O36" sqref="O36"/>
+      <selection pane="bottomLeft" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,40 +2955,49 @@
     <col min="3" max="3" width="103" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="F1" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="8">
+      <c r="E2" s="20">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="F2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -2911,10 +3005,14 @@
       <c r="D3" s="1">
         <v>38</v>
       </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -2922,10 +3020,14 @@
       <c r="D4" s="1">
         <v>38</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -2933,10 +3035,12 @@
       <c r="D5" s="1">
         <v>38</v>
       </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -2944,10 +3048,12 @@
       <c r="D6" s="1">
         <v>38</v>
       </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
@@ -2955,10 +3061,12 @@
       <c r="D7" s="1">
         <v>27</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
@@ -2966,10 +3074,12 @@
       <c r="D8" s="1">
         <v>27</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -2977,39 +3087,49 @@
       <c r="D9" s="1">
         <v>27</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="10" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>27</v>
       </c>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="E11" s="6"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8">
+      <c r="E12" s="20">
         <v>316</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="F12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -3017,10 +3137,14 @@
       <c r="D13" s="1">
         <v>10</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -3028,10 +3152,12 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -3039,10 +3165,12 @@
       <c r="D15" s="1">
         <v>67</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -3050,10 +3178,12 @@
       <c r="D16" s="1">
         <v>67</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
         <v>26</v>
@@ -3061,10 +3191,12 @@
       <c r="D17" s="1">
         <v>67</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
         <v>27</v>
@@ -3072,10 +3204,12 @@
       <c r="D18" s="1">
         <v>67</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
         <v>28</v>
@@ -3083,10 +3217,12 @@
       <c r="D19" s="1">
         <v>67</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
         <v>29</v>
@@ -3094,10 +3230,12 @@
       <c r="D20" s="1">
         <v>67</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
         <v>30</v>
@@ -3105,38 +3243,48 @@
       <c r="D21" s="1">
         <v>67</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="10" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>67</v>
       </c>
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="E22" s="22"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>9</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8">
+      <c r="E24" s="20">
         <v>517</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="F24" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -3144,10 +3292,14 @@
       <c r="D25" s="1">
         <v>50</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -3155,10 +3307,14 @@
       <c r="D26" s="1">
         <v>50</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -3166,10 +3322,14 @@
       <c r="D27" s="1">
         <v>165</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -3177,10 +3337,12 @@
       <c r="D28" s="1">
         <v>165</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -3188,10 +3350,12 @@
       <c r="D29" s="1">
         <v>165</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -3199,10 +3363,12 @@
       <c r="D30" s="1">
         <v>149</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -3210,10 +3376,12 @@
       <c r="D31" s="1">
         <v>47</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -3221,10 +3389,12 @@
       <c r="D32" s="1">
         <v>47</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -3232,38 +3402,47 @@
       <c r="D33" s="1">
         <v>47</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="10" t="s">
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>47</v>
       </c>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>11</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-      <c r="E36" s="8">
+      <c r="E36" s="20">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="F36" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
         <v>43</v>
@@ -3271,10 +3450,14 @@
       <c r="D37" s="1">
         <v>29</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1" t="s">
         <v>44</v>
@@ -3282,10 +3465,12 @@
       <c r="D38" s="1">
         <v>29</v>
       </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
         <v>45</v>
@@ -3293,10 +3478,12 @@
       <c r="D39" s="1">
         <v>26</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -3304,10 +3491,12 @@
       <c r="D40" s="1">
         <v>26</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
         <v>47</v>
@@ -3315,38 +3504,47 @@
       <c r="D41" s="1">
         <v>26</v>
       </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="10" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>26</v>
       </c>
-      <c r="E42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+      <c r="E42" s="22"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
         <v>14</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="8">
+      <c r="E44" s="20">
         <v>354</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="F44" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1" t="s">
         <v>49</v>
@@ -3354,10 +3552,14 @@
       <c r="D45" s="1">
         <v>353</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
         <v>50</v>
@@ -3365,171 +3567,234 @@
       <c r="D46" s="1">
         <v>353</v>
       </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="10" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>353</v>
       </c>
-      <c r="E47" s="11"/>
-    </row>
-    <row r="48" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
+      <c r="E47" s="22"/>
+      <c r="F47" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="F48" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
         <v>15</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B50" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="20">
         <v>100</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="1">
-        <v>84</v>
-      </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="F50" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" s="1">
         <v>84</v>
       </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D52" s="1">
         <v>84</v>
       </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="10" t="s">
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="1">
+        <v>84</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D54" s="8">
         <v>84</v>
       </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
+      <c r="E54" s="22"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
         <v>16</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="20">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="1">
-        <v>6</v>
-      </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
+      <c r="F56" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" s="1">
         <v>6</v>
       </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="10" t="s">
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58" s="1">
+        <v>6</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="18"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D59" s="8">
         <v>6</v>
       </c>
-      <c r="E58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="19"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
+      <c r="E59" s="22"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="G60" s="25"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
         <v>17</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="20">
         <v>1000</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="1" t="s">
+      <c r="F61" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="25"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D62" s="1">
         <v>154</v>
       </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="10" t="s">
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D63" s="8">
         <v>154</v>
       </c>
-      <c r="E62" s="11"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="80" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="16" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>